--- a/Doc/StateTransitionTable.xlsx
+++ b/Doc/StateTransitionTable.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Work\Object Oriented Design and Implementation\GroupProject2\Doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C39E22-089B-42BF-9C35-60897C486C1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="26419" windowHeight="11234"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +37,12 @@
     <t>Cancel Pressed</t>
   </si>
   <si>
+    <t>Timer Completes</t>
+  </si>
+  <si>
+    <t>Code Entered</t>
+  </si>
+  <si>
     <t>State</t>
   </si>
   <si>
@@ -52,38 +52,38 @@
     <t>Zones not ready</t>
   </si>
   <si>
+    <t>Away Countdown</t>
+  </si>
+  <si>
+    <t>Stay Countdown</t>
+  </si>
+  <si>
+    <t>Zones not Ready</t>
+  </si>
+  <si>
     <t>Away Armed</t>
   </si>
   <si>
+    <t>Breach Countdown</t>
+  </si>
+  <si>
+    <t>Security Breach</t>
+  </si>
+  <si>
     <t>Stay Armed</t>
-  </si>
-  <si>
-    <t>Zones not Ready</t>
-  </si>
-  <si>
-    <t>Security Breach</t>
-  </si>
-  <si>
-    <t>Timer Completes</t>
-  </si>
-  <si>
-    <t>Code Entered</t>
-  </si>
-  <si>
-    <t>Away Countdown</t>
-  </si>
-  <si>
-    <t>Stay Countdown</t>
-  </si>
-  <si>
-    <t>Breach Countdown</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,8 +99,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,12 +253,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,40 +452,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -279,7 +892,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -303,9 +916,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -329,7 +942,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -382,7 +995,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -407,49 +1020,46 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="10" width="18.21875" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44" style="1" customWidth="true"/>
+    <col min="3" max="8" width="19.4" customWidth="true"/>
+    <col min="9" max="9" width="17.54" customWidth="true"/>
+    <col min="10" max="10" width="18.22" customWidth="true"/>
+    <col min="11" max="11" width="16.11" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="3:10">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="true" spans="3:10">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -469,252 +1079,252 @@
         <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -723,5 +1333,6 @@
     <mergeCell ref="A3:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Doc/StateTransitionTable.xlsx
+++ b/Doc/StateTransitionTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Work\Object Oriented Design and Implementation\GroupProject2\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E3F7BA-DFFC-4B7F-A698-A02A1AF4D6FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C717DD-501F-450E-B396-E91A806AB81A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9888" yWindow="0" windowWidth="6300" windowHeight="11208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
   <si>
     <t>Event</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Stay Armed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancel </t>
+  </si>
+  <si>
+    <t>Cancel</t>
   </si>
 </sst>
 </file>
@@ -128,7 +134,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,6 +146,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -435,14 +444,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
@@ -473,7 +482,7 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -505,7 +514,7 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -535,7 +544,7 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
@@ -555,7 +564,7 @@
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>15</v>
@@ -565,7 +574,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -595,7 +604,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
@@ -625,7 +634,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -655,7 +664,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -712,6 +721,36 @@
       </c>
       <c r="J10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/StateTransitionTable.xlsx
+++ b/Doc/StateTransitionTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School Work\Object Oriented Design and Implementation\GroupProject2\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C717DD-501F-450E-B396-E91A806AB81A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899BBE3A-7D74-440E-88A5-D53348530DD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="25">
   <si>
     <t>Event</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Timer Completes</t>
   </si>
   <si>
-    <t>Code Entered</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -79,10 +76,25 @@
     <t>Stay Armed</t>
   </si>
   <si>
-    <t xml:space="preserve">Cancel </t>
-  </si>
-  <si>
     <t>Cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Away Cancel </t>
+  </si>
+  <si>
+    <t>Away Cancel</t>
+  </si>
+  <si>
+    <t>Incorrect Code</t>
+  </si>
+  <si>
+    <t>Correct Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay Cancel </t>
+  </si>
+  <si>
+    <t>Stay Cancel</t>
   </si>
 </sst>
 </file>
@@ -134,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -146,6 +158,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -443,19 +458,20 @@
     <col min="11" max="11" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:11">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1">
+      <c r="K1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1">
       <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
@@ -478,252 +494,279 @@
         <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
       <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6"/>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="6"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5"/>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="K10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
         <v>19</v>
@@ -732,7 +775,7 @@
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -741,7 +784,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -750,7 +793,43 @@
         <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
